--- a/DI.xlsx
+++ b/DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kahra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E977D7-F019-43A7-885A-FF3269BDD9A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIC" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="742">
   <si>
     <t>IOT BENIGN AND ATTACK TRACES Data Collected for ACM SOSR 2019</t>
   </si>
@@ -2218,13 +2218,431 @@
   </si>
   <si>
     <t>WeMoMotionSensor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aalto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNSW-DI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>214</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProfilIoT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>154</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IoT-23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IoT-traffic-dataset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N-BAIOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>153</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNSW-AD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yourthings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LSIF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MonIoTr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>189</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D-LinkIoT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IoT-deNAT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>156</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CIC-IoT-22 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lwhbench-RASPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMR12"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Class </t>
+  </si>
+  <si>
+    <t>Device Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,6 +2676,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="CMR12"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEC028D"/>
+      <name val="CMR12"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="CMR12"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2451,7 +2892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2489,6 +2930,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2513,12 +2958,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2828,7 +3272,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2840,12 +3284,12 @@
       <c r="E2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="17" t="s">
         <v>118</v>
       </c>
@@ -2855,10 +3299,10 @@
       <c r="E3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
@@ -2870,7 +3314,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -2882,7 +3326,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
@@ -2894,7 +3338,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
@@ -2906,7 +3350,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2920,7 +3364,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
       </c>
@@ -2932,7 +3376,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="9" t="s">
         <v>98</v>
       </c>
@@ -2944,7 +3388,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="9" t="s">
         <v>100</v>
       </c>
@@ -2956,7 +3400,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
@@ -2968,7 +3412,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
@@ -2980,7 +3424,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
@@ -2992,7 +3436,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
@@ -3004,7 +3448,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
@@ -3016,7 +3460,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3472,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="35"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3040,7 +3484,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="35" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3054,7 +3498,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
@@ -3066,7 +3510,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="9" t="s">
         <v>156</v>
       </c>
@@ -3078,7 +3522,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
@@ -3090,7 +3534,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="13" t="s">
         <v>162</v>
       </c>
@@ -3100,12 +3544,12 @@
       <c r="E23" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="13" t="s">
         <v>170</v>
       </c>
@@ -3115,10 +3559,10 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="13" t="s">
         <v>166</v>
       </c>
@@ -3128,10 +3572,10 @@
       <c r="E25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13" t="s">
         <v>168</v>
       </c>
@@ -3141,12 +3585,12 @@
       <c r="E26" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13" t="s">
         <v>164</v>
       </c>
@@ -3156,10 +3600,10 @@
       <c r="E27" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13" t="s">
         <v>172</v>
       </c>
@@ -3169,10 +3613,10 @@
       <c r="E28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="13" t="s">
         <v>174</v>
       </c>
@@ -3182,10 +3626,10 @@
       <c r="E29" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3641,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="9" t="s">
         <v>177</v>
       </c>
@@ -3209,7 +3653,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="9" t="s">
         <v>180</v>
       </c>
@@ -3221,7 +3665,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
@@ -3233,7 +3677,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="9" t="s">
         <v>185</v>
       </c>
@@ -3245,7 +3689,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="17" t="s">
         <v>188</v>
       </c>
@@ -3255,12 +3699,12 @@
       <c r="E35" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="17" t="s">
         <v>190</v>
       </c>
@@ -3270,10 +3714,10 @@
       <c r="E36" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="34"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="17" t="s">
         <v>192</v>
       </c>
@@ -3283,12 +3727,12 @@
       <c r="E37" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="35"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="19" t="s">
         <v>194</v>
       </c>
@@ -3298,10 +3742,10 @@
       <c r="E38" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="35" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3315,7 +3759,7 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="34"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
@@ -3327,7 +3771,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="35"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
@@ -5324,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBAC72-E356-4FB3-9EA1-9E156A6251F2}">
-  <dimension ref="D2:F5"/>
+  <dimension ref="D2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5335,9 +5779,11 @@
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
+    <row r="2" spans="4:12">
       <c r="E2" t="s">
         <v>713</v>
       </c>
@@ -5345,7 +5791,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:12">
       <c r="E3" t="s">
         <v>716</v>
       </c>
@@ -5353,7 +5799,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:12">
       <c r="E4" t="s">
         <v>717</v>
       </c>
@@ -5361,12 +5807,243 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:12" ht="15.6">
       <c r="D5" t="s">
         <v>542</v>
       </c>
+      <c r="K5" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="4:12" ht="15.6">
+      <c r="I6" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="15.6">
+      <c r="I7" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="J7">
+        <v>2016</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="15.6">
+      <c r="I8" s="44" t="s">
+        <v>725</v>
+      </c>
+      <c r="J8">
+        <v>2016</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="15.6">
+      <c r="I9" s="44" t="s">
+        <v>726</v>
+      </c>
+      <c r="J9">
+        <v>2017</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="15.6">
+      <c r="I10" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="J10">
+        <v>2018</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="15.6">
+      <c r="I11" s="44" t="s">
+        <v>728</v>
+      </c>
+      <c r="J11">
+        <v>2018</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="15.6">
+      <c r="I12" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="J12">
+        <v>2018</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="15.6">
+      <c r="I13" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="J13">
+        <v>2018</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="15.6">
+      <c r="I14" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="J14">
+        <v>2018</v>
+      </c>
+      <c r="K14">
+        <v>51</v>
+      </c>
+      <c r="L14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" ht="15.6">
+      <c r="I15" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="J15">
+        <v>2019</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" ht="15.6">
+      <c r="I16" s="44" t="s">
+        <v>733</v>
+      </c>
+      <c r="J16">
+        <v>2019</v>
+      </c>
+      <c r="K16">
+        <v>81</v>
+      </c>
+      <c r="L16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" ht="15.6">
+      <c r="I17" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="J17">
+        <v>2020</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" ht="15.6">
+      <c r="I18" s="44" t="s">
+        <v>735</v>
+      </c>
+      <c r="J18">
+        <v>2020</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" ht="15.6">
+      <c r="I19" s="44" t="s">
+        <v>736</v>
+      </c>
+      <c r="J19">
+        <v>2021</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" ht="15.6">
+      <c r="I20" s="44" t="s">
+        <v>737</v>
+      </c>
+      <c r="J20">
+        <v>2021</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" ht="15.6">
+      <c r="I21" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="J21">
+        <v>2019</v>
+      </c>
+      <c r="K21">
+        <v>41</v>
+      </c>
+      <c r="L21">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6155,7 +6832,7 @@
         <v>359</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6164,14 +6841,14 @@
         <v>360</v>
       </c>
       <c r="F3" s="24"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="24" t="s">
         <v>361</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6180,42 +6857,42 @@
         <v>362</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" s="24" t="s">
         <v>363</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" s="24" t="s">
         <v>364</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="24" t="s">
         <v>365</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="24" t="s">
         <v>366</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" s="24" t="s">
         <v>367</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6224,14 +6901,14 @@
         <v>368</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="24" t="s">
         <v>369</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
@@ -6243,7 +6920,7 @@
         <v>371</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6252,7 +6929,7 @@
         <v>372</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6454,7 +7131,7 @@
       <c r="F23" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="41" t="s">
         <v>427</v>
       </c>
       <c r="H23" s="26"/>
@@ -6466,7 +7143,7 @@
       <c r="F24" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="5:8">
@@ -6476,7 +7153,7 @@
       <c r="F25" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="41" t="s">
         <v>427</v>
       </c>
       <c r="H25" s="26"/>
@@ -6488,7 +7165,7 @@
       <c r="F26" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="5:8">
@@ -7020,11 +7697,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="1"/>
@@ -7628,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287DA618-E5E5-4C43-B3A2-5C05E8E0DAF8}">
   <dimension ref="H1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
@@ -7678,7 +8355,7 @@
       </c>
     </row>
     <row r="6" spans="8:9">
-      <c r="H6" s="43" t="s">
+      <c r="H6" t="s">
         <v>543</v>
       </c>
       <c r="I6" t="s">
@@ -7878,7 +8555,7 @@
       </c>
     </row>
     <row r="31" spans="8:9">
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="33" t="s">
         <v>206</v>
       </c>
       <c r="I31" s="32" t="s">
@@ -7902,7 +8579,7 @@
       </c>
     </row>
     <row r="34" spans="8:9">
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="32" t="s">
         <v>273</v>
       </c>
       <c r="I34" t="s">
@@ -7910,7 +8587,7 @@
       </c>
     </row>
     <row r="35" spans="8:9">
-      <c r="H35" s="43" t="s">
+      <c r="H35" t="s">
         <v>387</v>
       </c>
       <c r="I35" t="s">
@@ -7926,7 +8603,7 @@
       </c>
     </row>
     <row r="37" spans="8:9">
-      <c r="H37" s="43" t="s">
+      <c r="H37" t="s">
         <v>393</v>
       </c>
       <c r="I37" t="s">
@@ -8382,7 +9059,7 @@
       </c>
     </row>
     <row r="94" spans="8:9">
-      <c r="H94" s="42" t="s">
+      <c r="H94" s="34" t="s">
         <v>107</v>
       </c>
       <c r="I94" s="32" t="s">

--- a/DI.xlsx
+++ b/DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E977D7-F019-43A7-885A-FF3269BDD9A0}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD02992A-0A8C-4918-AD1D-CCBC5811A494}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2934,6 +2934,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2958,8 +2960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2978,6 +2978,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311736</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screen shot of a data sheet&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BB6D-1900-3F08-B99C-848FB23A6FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="0"/>
+          <a:ext cx="4700856" cy="4412936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3272,7 +3321,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3284,12 +3333,12 @@
       <c r="E2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
         <v>118</v>
       </c>
@@ -3299,10 +3348,10 @@
       <c r="E3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
@@ -3314,7 +3363,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3326,7 +3375,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
@@ -3338,7 +3387,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
@@ -3350,7 +3399,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3364,7 +3413,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
       </c>
@@ -3376,7 +3425,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>98</v>
       </c>
@@ -3388,7 +3437,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>100</v>
       </c>
@@ -3400,7 +3449,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
@@ -3412,7 +3461,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
@@ -3424,7 +3473,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
@@ -3436,7 +3485,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
@@ -3448,7 +3497,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
@@ -3460,7 +3509,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3521,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3484,7 +3533,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3498,7 +3547,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="36"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3559,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="9" t="s">
         <v>156</v>
       </c>
@@ -3522,7 +3571,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
@@ -3534,7 +3583,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="13" t="s">
         <v>162</v>
       </c>
@@ -3544,12 +3593,12 @@
       <c r="E23" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="36"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="13" t="s">
         <v>170</v>
       </c>
@@ -3559,10 +3608,10 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="13" t="s">
         <v>166</v>
       </c>
@@ -3572,10 +3621,10 @@
       <c r="E25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="38"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="13" t="s">
         <v>168</v>
       </c>
@@ -3585,12 +3634,12 @@
       <c r="E26" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="36"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="13" t="s">
         <v>164</v>
       </c>
@@ -3600,10 +3649,10 @@
       <c r="E27" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="36"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="13" t="s">
         <v>172</v>
       </c>
@@ -3613,10 +3662,10 @@
       <c r="E28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="38"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="36"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="13" t="s">
         <v>174</v>
       </c>
@@ -3626,10 +3675,10 @@
       <c r="E29" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="36"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
@@ -3641,7 +3690,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="36"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="9" t="s">
         <v>177</v>
       </c>
@@ -3653,7 +3702,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="36"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="9" t="s">
         <v>180</v>
       </c>
@@ -3665,7 +3714,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="36"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
@@ -3677,7 +3726,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="9" t="s">
         <v>185</v>
       </c>
@@ -3689,7 +3738,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="17" t="s">
         <v>188</v>
       </c>
@@ -3699,12 +3748,12 @@
       <c r="E35" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="17" t="s">
         <v>190</v>
       </c>
@@ -3714,10 +3763,10 @@
       <c r="E36" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="36"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="17" t="s">
         <v>192</v>
       </c>
@@ -3727,12 +3776,12 @@
       <c r="E37" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="37"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="19" t="s">
         <v>194</v>
       </c>
@@ -3742,10 +3791,10 @@
       <c r="E38" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="37" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3759,7 +3808,7 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="36"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
@@ -3771,7 +3820,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="37"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
@@ -5771,7 +5820,7 @@
   <dimension ref="D2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5817,49 +5866,49 @@
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="4:12" ht="15.6">
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="35" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="15.6">
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="36" t="s">
         <v>724</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="32">
         <v>2016</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="32">
         <v>31</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="32">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="15.6">
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="32">
         <v>2016</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="32">
         <v>24</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="32">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="15.6">
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="36" t="s">
         <v>726</v>
       </c>
       <c r="J9">
@@ -5873,35 +5922,35 @@
       </c>
     </row>
     <row r="10" spans="4:12" ht="15.6">
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="36" t="s">
         <v>727</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="32">
         <v>2018</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="32">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="4:12" ht="15.6">
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="36" t="s">
         <v>728</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="32">
         <v>2018</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="32">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="4:12" ht="15.6">
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="36" t="s">
         <v>729</v>
       </c>
       <c r="J12">
@@ -5915,77 +5964,77 @@
       </c>
     </row>
     <row r="13" spans="4:12" ht="15.6">
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="36" t="s">
         <v>730</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="32">
         <v>2018</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="32">
         <v>28</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="15.6">
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="32">
         <v>2018</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="32">
         <v>51</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="32">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="15.6">
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="32">
         <v>2019</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="32">
         <v>22</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="32">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="4:12" ht="15.6">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="36" t="s">
         <v>733</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="32">
         <v>2019</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="32">
         <v>81</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="9:12" ht="15.6">
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="36" t="s">
         <v>734</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="32">
         <v>2020</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="32">
         <v>14</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="9:12" ht="15.6">
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="36" t="s">
         <v>735</v>
       </c>
       <c r="J18">
@@ -5999,21 +6048,21 @@
       </c>
     </row>
     <row r="19" spans="9:12" ht="15.6">
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="32">
         <v>2021</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="32">
         <v>60</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="32">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="9:12" ht="15.6">
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="36" t="s">
         <v>737</v>
       </c>
       <c r="J20">
@@ -6027,16 +6076,16 @@
       </c>
     </row>
     <row r="21" spans="9:12" ht="15.6">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="32">
         <v>2019</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="32">
         <v>41</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="32">
         <v>41</v>
       </c>
     </row>
@@ -6045,6 +6094,7 @@
     <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6832,7 +6882,7 @@
         <v>359</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6841,14 +6891,14 @@
         <v>360</v>
       </c>
       <c r="F3" s="24"/>
-      <c r="G3" s="40"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="24" t="s">
         <v>361</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="42" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6857,42 +6907,42 @@
         <v>362</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" s="24" t="s">
         <v>363</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" s="24" t="s">
         <v>364</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="24" t="s">
         <v>365</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="24" t="s">
         <v>366</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" s="24" t="s">
         <v>367</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="42" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6901,14 +6951,14 @@
         <v>368</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="24" t="s">
         <v>369</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
@@ -6920,7 +6970,7 @@
         <v>371</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="41" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6929,7 +6979,7 @@
         <v>372</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7131,7 +7181,7 @@
       <c r="F23" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="43" t="s">
         <v>427</v>
       </c>
       <c r="H23" s="26"/>
@@ -7143,7 +7193,7 @@
       <c r="F24" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="5:8">
@@ -7153,7 +7203,7 @@
       <c r="F25" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="43" t="s">
         <v>427</v>
       </c>
       <c r="H25" s="26"/>
@@ -7165,7 +7215,7 @@
       <c r="F26" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="5:8">
@@ -7697,11 +7747,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="1"/>

--- a/DI.xlsx
+++ b/DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD02992A-0A8C-4918-AD1D-CCBC5811A494}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{3543ECBF-B4F9-4503-BF4B-F246415CB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBDC5211-AA82-4429-BFB7-920B528F431C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="764">
   <si>
     <t>IOT BENIGN AND ATTACK TRACES Data Collected for ACM SOSR 2019</t>
   </si>
@@ -2637,12 +2637,78 @@
   <si>
     <t>Device Number</t>
   </si>
+  <si>
+    <t>It's not suitable because it doesn't have raw data.</t>
+  </si>
+  <si>
+    <t>Reserved for TEST phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Echo </t>
+  </si>
+  <si>
+    <t>23 IoT</t>
+  </si>
+  <si>
+    <t>sonos what?</t>
+  </si>
+  <si>
+    <t>Somfy door lock</t>
+  </si>
+  <si>
+    <t>Philips Hue</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>google home</t>
+  </si>
+  <si>
+    <t>tmall assist</t>
+  </si>
+  <si>
+    <t>xiaomi hub</t>
+  </si>
+  <si>
+    <t>360 camera</t>
+  </si>
+  <si>
+    <t>xiaobai camera</t>
+  </si>
+  <si>
+    <t>tplink plug</t>
+  </si>
+  <si>
+    <t>orvibo plug</t>
+  </si>
+  <si>
+    <t>broadlink plug</t>
+  </si>
+  <si>
+    <t>mitu story teller</t>
+  </si>
+  <si>
+    <t>sony mobile</t>
+  </si>
+  <si>
+    <t>motorola mobile</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Amazon echo dot</t>
+  </si>
+  <si>
+    <t>D-LinkIoT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2703,8 +2769,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="LinLibertineT"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2747,8 +2818,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2888,11 +2965,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2936,6 +3028,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2985,13 +3089,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>311736</xdr:colOff>
+      <xdr:colOff>479376</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>130496</xdr:rowOff>
     </xdr:to>
@@ -3016,7 +3120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="0"/>
+          <a:off x="2377440" y="0"/>
           <a:ext cx="4700856" cy="4412936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3027,6 +3131,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3321,7 +3429,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3333,12 +3441,12 @@
       <c r="E2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="38"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="17" t="s">
         <v>118</v>
       </c>
@@ -3348,10 +3456,10 @@
       <c r="E3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="38"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
@@ -3363,7 +3471,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="38"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3375,7 +3483,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="38"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
@@ -3387,7 +3495,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="39"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
@@ -3399,7 +3507,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3413,7 +3521,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="38"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
       </c>
@@ -3425,7 +3533,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="38"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="9" t="s">
         <v>98</v>
       </c>
@@ -3437,7 +3545,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="38"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="9" t="s">
         <v>100</v>
       </c>
@@ -3449,7 +3557,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="38"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
@@ -3461,7 +3569,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="38"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
@@ -3473,7 +3581,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="38"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
@@ -3485,7 +3593,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="38"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
@@ -3497,7 +3605,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="38"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
@@ -3509,7 +3617,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="38"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3521,7 +3629,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="39"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3533,7 +3641,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="45" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3547,7 +3655,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="38"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
@@ -3559,7 +3667,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="38"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="9" t="s">
         <v>156</v>
       </c>
@@ -3571,7 +3679,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="38"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
@@ -3583,7 +3691,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="38"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="13" t="s">
         <v>162</v>
       </c>
@@ -3593,12 +3701,12 @@
       <c r="E23" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="38"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13" t="s">
         <v>170</v>
       </c>
@@ -3608,10 +3716,10 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="38"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="13" t="s">
         <v>166</v>
       </c>
@@ -3621,10 +3729,10 @@
       <c r="E25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="38"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="13" t="s">
         <v>168</v>
       </c>
@@ -3634,12 +3742,12 @@
       <c r="E26" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="38"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="13" t="s">
         <v>164</v>
       </c>
@@ -3649,10 +3757,10 @@
       <c r="E27" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="38"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="13" t="s">
         <v>172</v>
       </c>
@@ -3662,10 +3770,10 @@
       <c r="E28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="38"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13" t="s">
         <v>174</v>
       </c>
@@ -3675,10 +3783,10 @@
       <c r="E29" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="38"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
@@ -3690,7 +3798,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="38"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="9" t="s">
         <v>177</v>
       </c>
@@ -3702,7 +3810,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="38"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="9" t="s">
         <v>180</v>
       </c>
@@ -3714,7 +3822,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="38"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
@@ -3726,7 +3834,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="38"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="9" t="s">
         <v>185</v>
       </c>
@@ -3738,7 +3846,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="38"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="17" t="s">
         <v>188</v>
       </c>
@@ -3748,12 +3856,12 @@
       <c r="E35" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="38"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="17" t="s">
         <v>190</v>
       </c>
@@ -3763,10 +3871,10 @@
       <c r="E36" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="48"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="38"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="17" t="s">
         <v>192</v>
       </c>
@@ -3776,12 +3884,12 @@
       <c r="E37" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="39"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="19" t="s">
         <v>194</v>
       </c>
@@ -3791,10 +3899,10 @@
       <c r="E38" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="40"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3808,7 +3916,7 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="38"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
@@ -3820,7 +3928,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="39"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
@@ -5817,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBAC72-E356-4FB3-9EA1-9E156A6251F2}">
-  <dimension ref="D2:L21"/>
+  <dimension ref="D2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5832,7 +5940,7 @@
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12">
+    <row r="2" spans="4:13">
       <c r="E2" t="s">
         <v>713</v>
       </c>
@@ -5840,7 +5948,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="4:12">
+    <row r="3" spans="4:13">
       <c r="E3" t="s">
         <v>716</v>
       </c>
@@ -5848,7 +5956,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="4:12">
+    <row r="4" spans="4:13">
       <c r="E4" t="s">
         <v>717</v>
       </c>
@@ -5856,16 +5964,16 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="15.6">
+    <row r="5" spans="4:13" ht="15.6">
       <c r="D5" t="s">
         <v>542</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>741</v>
       </c>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="4:12" ht="15.6">
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="4:13" ht="15.6">
       <c r="I6" s="35" t="s">
         <v>516</v>
       </c>
@@ -5879,7 +5987,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="4:12" ht="15.6">
+    <row r="7" spans="4:13" ht="15.6">
+      <c r="H7" t="s">
+        <v>749</v>
+      </c>
       <c r="I7" s="36" t="s">
         <v>724</v>
       </c>
@@ -5893,35 +6004,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="15.6">
-      <c r="I8" s="36" t="s">
+    <row r="8" spans="4:13" ht="15.6">
+      <c r="I8" s="39" t="s">
         <v>725</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <v>2016</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>24</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="4:12" ht="15.6">
-      <c r="I9" s="36" t="s">
+      <c r="M8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="15.6">
+      <c r="I9" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="38">
         <v>2017</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="38">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="38">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" ht="15.6">
+      <c r="M9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" ht="15.6">
+      <c r="H10" t="s">
+        <v>749</v>
+      </c>
       <c r="I10" s="36" t="s">
         <v>727</v>
       </c>
@@ -5935,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:12" ht="15.6">
+    <row r="11" spans="4:13" ht="15.6">
       <c r="I11" s="36" t="s">
         <v>728</v>
       </c>
@@ -5949,35 +6069,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="15.6">
-      <c r="I12" s="36" t="s">
+    <row r="12" spans="4:13" ht="15.6">
+      <c r="I12" s="37" t="s">
         <v>729</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="38">
         <v>2018</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="38">
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="38">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" ht="15.6">
-      <c r="I13" s="36" t="s">
+      <c r="M12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" ht="15.6">
+      <c r="I13" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>2018</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>28</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" ht="15.6">
+      <c r="M13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" ht="15.6">
       <c r="I14" s="36" t="s">
         <v>731</v>
       </c>
@@ -5991,7 +6117,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="4:12" ht="15.6">
+    <row r="15" spans="4:13" ht="15.6">
+      <c r="H15" t="s">
+        <v>749</v>
+      </c>
       <c r="I15" s="36" t="s">
         <v>732</v>
       </c>
@@ -6005,21 +6134,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="4:12" ht="15.6">
-      <c r="I16" s="36" t="s">
+    <row r="16" spans="4:13" ht="15.6">
+      <c r="I16" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="31">
         <v>2019</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="31">
         <v>81</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="31">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="9:12" ht="15.6">
+      <c r="M16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" ht="15.6">
+      <c r="H17" t="s">
+        <v>749</v>
+      </c>
       <c r="I17" s="36" t="s">
         <v>734</v>
       </c>
@@ -6033,21 +6168,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="9:12" ht="15.6">
-      <c r="I18" s="36" t="s">
+    <row r="18" spans="8:13" ht="15.6">
+      <c r="I18" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="38">
         <v>2020</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="38">
         <v>8</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="38">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="9:12" ht="15.6">
+      <c r="M18" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" ht="15.6">
+      <c r="H19" t="s">
+        <v>749</v>
+      </c>
       <c r="I19" s="36" t="s">
         <v>736</v>
       </c>
@@ -6061,32 +6202,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="9:12" ht="15.6">
-      <c r="I20" s="36" t="s">
+    <row r="20" spans="8:13" ht="15.6">
+      <c r="I20" s="37" t="s">
         <v>737</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="38">
         <v>2021</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="38">
         <v>45</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="38">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="9:12" ht="15.6">
-      <c r="I21" s="36" t="s">
+      <c r="M20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" ht="15.6">
+      <c r="I21" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>2019</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>41</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -6872,7 +7019,7 @@
   <dimension ref="E2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6882,7 +7029,7 @@
         <v>359</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="50" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6891,14 +7038,14 @@
         <v>360</v>
       </c>
       <c r="F3" s="24"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="24" t="s">
         <v>361</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="50" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6907,42 +7054,42 @@
         <v>362</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" s="24" t="s">
         <v>363</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" s="24" t="s">
         <v>364</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="24" t="s">
         <v>365</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="24" t="s">
         <v>366</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="42"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" s="24" t="s">
         <v>367</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="50" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6951,14 +7098,14 @@
         <v>368</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="24" t="s">
         <v>369</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
@@ -6970,7 +7117,7 @@
         <v>371</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="49" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6979,7 +7126,7 @@
         <v>372</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="41"/>
+      <c r="G15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7181,7 +7328,7 @@
       <c r="F23" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="51" t="s">
         <v>427</v>
       </c>
       <c r="H23" s="26"/>
@@ -7193,7 +7340,7 @@
       <c r="F24" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="5:8">
@@ -7203,7 +7350,7 @@
       <c r="F25" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="51" t="s">
         <v>427</v>
       </c>
       <c r="H25" s="26"/>
@@ -7215,7 +7362,7 @@
       <c r="F26" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="5:8">
@@ -7747,11 +7894,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="1"/>
@@ -8353,10 +8500,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287DA618-E5E5-4C43-B3A2-5C05E8E0DAF8}">
-  <dimension ref="H1:I156"/>
+  <dimension ref="H1:J185"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I162" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8373,16 +8520,16 @@
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" t="s">
-        <v>115</v>
+      <c r="H2" s="41" t="s">
+        <v>753</v>
       </c>
       <c r="I2" t="s">
-        <v>512</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="8:9">
       <c r="H3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
         <v>512</v>
@@ -8390,7 +8537,7 @@
     </row>
     <row r="4" spans="8:9">
       <c r="H4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
         <v>512</v>
@@ -8398,7 +8545,7 @@
     </row>
     <row r="5" spans="8:9">
       <c r="H5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
         <v>512</v>
@@ -8406,47 +8553,47 @@
     </row>
     <row r="6" spans="8:9">
       <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9">
+      <c r="H7" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="I7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="41" t="s">
+        <v>762</v>
+      </c>
+      <c r="I8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9">
+      <c r="H9" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I9" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="8:9">
-      <c r="H7" s="29" t="s">
+    <row r="10" spans="8:9">
+      <c r="H10" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I10" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="8" spans="8:9">
-      <c r="H8" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="I8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="8:9">
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="8:9">
-      <c r="H10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>353</v>
+        <v>545</v>
       </c>
       <c r="I11" t="s">
         <v>514</v>
@@ -8454,95 +8601,95 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="8:9">
-      <c r="H13" t="s">
-        <v>267</v>
+      <c r="H13" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9">
+      <c r="H15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9">
+      <c r="H16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" t="s">
         <v>374</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="8:9">
-      <c r="H15" s="9" t="s">
+    <row r="18" spans="8:9">
+      <c r="H18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="8:9">
-      <c r="H16" s="9" t="s">
+    <row r="19" spans="8:9">
+      <c r="H19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="9" t="s">
+    <row r="20" spans="8:9">
+      <c r="H20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I20" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="29" t="s">
+    <row r="21" spans="8:9">
+      <c r="H21" s="28" t="s">
         <v>289</v>
-      </c>
-      <c r="I18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="I19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" t="s">
-        <v>345</v>
-      </c>
-      <c r="I20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" t="s">
-        <v>255</v>
       </c>
       <c r="I21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="9" t="s">
-        <v>100</v>
+      <c r="H22" t="s">
+        <v>347</v>
       </c>
       <c r="I22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="I23" t="s">
         <v>514</v>
@@ -8550,103 +8697,103 @@
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="I24" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="25" spans="8:9">
-      <c r="H25" t="s">
-        <v>297</v>
+      <c r="H25" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I26" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="27" spans="8:9">
-      <c r="H27" s="22" t="s">
-        <v>205</v>
+      <c r="H27" s="41" t="s">
+        <v>757</v>
       </c>
       <c r="I27" t="s">
-        <v>513</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="8:9">
       <c r="H28" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I28" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="29" spans="8:9">
-      <c r="H29" s="9" t="s">
+      <c r="H29" t="s">
+        <v>297</v>
+      </c>
+      <c r="I29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I33" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="9" t="s">
+    <row r="34" spans="8:9">
+      <c r="H34" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="33" t="s">
+    <row r="35" spans="8:9">
+      <c r="H35" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I35" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="32" t="s">
+    <row r="36" spans="8:9">
+      <c r="H36" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="I34" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35" t="s">
-        <v>387</v>
-      </c>
-      <c r="I35" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" t="s">
-        <v>370</v>
       </c>
       <c r="I36" t="s">
         <v>515</v>
@@ -8654,39 +8801,39 @@
     </row>
     <row r="37" spans="8:9">
       <c r="H37" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I37" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="38" spans="8:9">
-      <c r="H38" s="29" t="s">
-        <v>392</v>
+      <c r="H38" s="32" t="s">
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="8:9">
-      <c r="H39" s="28" t="s">
-        <v>390</v>
+      <c r="H39" t="s">
+        <v>387</v>
       </c>
       <c r="I39" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="40" spans="8:9">
-      <c r="H40" t="s">
-        <v>391</v>
+      <c r="H40" s="29" t="s">
+        <v>370</v>
       </c>
       <c r="I40" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="41" spans="8:9">
-      <c r="H41" s="29" t="s">
-        <v>382</v>
+      <c r="H41" s="28" t="s">
+        <v>393</v>
       </c>
       <c r="I41" t="s">
         <v>515</v>
@@ -8694,15 +8841,15 @@
     </row>
     <row r="42" spans="8:9">
       <c r="H42" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I42" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="43" spans="8:9">
-      <c r="H43" t="s">
-        <v>397</v>
+      <c r="H43" s="29" t="s">
+        <v>390</v>
       </c>
       <c r="I43" t="s">
         <v>515</v>
@@ -8710,7 +8857,7 @@
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I44" t="s">
         <v>515</v>
@@ -8718,7 +8865,7 @@
     </row>
     <row r="45" spans="8:9">
       <c r="H45" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I45" t="s">
         <v>515</v>
@@ -8726,39 +8873,39 @@
     </row>
     <row r="46" spans="8:9">
       <c r="H46" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="I46" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="8:9">
       <c r="H47" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="I47" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="8:9">
       <c r="H48" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="I48" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="8:9">
-      <c r="H49" s="9" t="s">
-        <v>159</v>
+      <c r="H49" t="s">
+        <v>380</v>
       </c>
       <c r="I49" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="8:9">
-      <c r="H50" s="9" t="s">
-        <v>102</v>
+      <c r="H50" t="s">
+        <v>156</v>
       </c>
       <c r="I50" t="s">
         <v>512</v>
@@ -8766,7 +8913,7 @@
     </row>
     <row r="51" spans="8:9">
       <c r="H51" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="I51" t="s">
         <v>514</v>
@@ -8774,87 +8921,87 @@
     </row>
     <row r="52" spans="8:9">
       <c r="H52" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="I52" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="53" spans="8:9">
-      <c r="H53" t="s">
+      <c r="H53" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54" s="41" t="s">
+        <v>750</v>
+      </c>
+      <c r="I54" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="H56" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9">
+      <c r="H58" t="s">
         <v>299</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I58" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="8:9">
-      <c r="H54" t="s">
+    <row r="59" spans="8:9">
+      <c r="H59" t="s">
         <v>230</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I59" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="8:9">
-      <c r="H55" s="22" t="s">
+    <row r="60" spans="8:9">
+      <c r="H60" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I60" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="8:9">
-      <c r="H56" s="22" t="s">
+    <row r="61" spans="8:9">
+      <c r="H61" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I61" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9">
-      <c r="H57" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="58" spans="8:9">
-      <c r="H58" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="8:9">
-      <c r="H59" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I59" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="8:9">
-      <c r="H60" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I60" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9">
-      <c r="H61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I61" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="62" spans="8:9">
       <c r="H62" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
         <v>512</v>
@@ -8862,327 +9009,327 @@
     </row>
     <row r="63" spans="8:9">
       <c r="H63" s="13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I63" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="64" spans="8:9">
-      <c r="H64" s="22" t="s">
-        <v>209</v>
+      <c r="H64" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="I64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="8:9">
-      <c r="H65" t="s">
-        <v>305</v>
+      <c r="H65" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="I65" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="8:9">
-      <c r="H66" s="9" t="s">
-        <v>103</v>
+      <c r="H66" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="I66" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="67" spans="8:9">
-      <c r="H67" s="9" t="s">
-        <v>104</v>
+      <c r="H67" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="I67" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="68" spans="8:9">
-      <c r="H68" s="9" t="s">
-        <v>140</v>
+      <c r="H68" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="I68" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="69" spans="8:9">
-      <c r="H69" t="s">
-        <v>375</v>
+      <c r="H69" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="I70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="8:9">
-      <c r="H71" t="s">
-        <v>379</v>
+      <c r="H71" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="8:9">
-      <c r="H72" t="s">
-        <v>399</v>
+      <c r="H72" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="I72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="8:9">
-      <c r="H73" t="s">
-        <v>236</v>
+      <c r="H73" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="H75" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="I75" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76" spans="8:9">
-      <c r="H76" s="9" t="s">
-        <v>105</v>
+      <c r="H76" t="s">
+        <v>379</v>
       </c>
       <c r="I76" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="8:9">
-      <c r="H77" s="22" t="s">
-        <v>210</v>
+      <c r="H77" t="s">
+        <v>399</v>
       </c>
       <c r="I77" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="I78" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="79" spans="8:9">
-      <c r="H79" s="22" t="s">
-        <v>211</v>
+      <c r="H79" t="s">
+        <v>357</v>
       </c>
       <c r="I79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9">
+      <c r="H80" t="s">
+        <v>355</v>
+      </c>
+      <c r="I80" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I82" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9">
-      <c r="H80" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I80" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9">
-      <c r="H81" t="s">
-        <v>341</v>
-      </c>
-      <c r="I81" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="82" spans="8:9">
-      <c r="H82" t="s">
-        <v>245</v>
-      </c>
-      <c r="I82" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="83" spans="8:9">
       <c r="H83" t="s">
+        <v>313</v>
+      </c>
+      <c r="I83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9">
+      <c r="H85" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86" t="s">
+        <v>341</v>
+      </c>
+      <c r="I86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I87" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9">
+      <c r="H88" t="s">
         <v>383</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I88" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="84" spans="8:9">
-      <c r="H84" t="s">
+    <row r="89" spans="8:9">
+      <c r="H89" t="s">
         <v>295</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I89" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9">
-      <c r="H85" t="s">
-        <v>275</v>
-      </c>
-      <c r="I85" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9">
-      <c r="H86" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I86" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9">
-      <c r="H87" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="I87" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9">
-      <c r="H88" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="89" spans="8:9">
-      <c r="H89" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I89" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="90" spans="8:9">
       <c r="H90" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="I90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="8:9">
-      <c r="H91" t="s">
-        <v>285</v>
+      <c r="H91" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="I91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="8:9">
       <c r="H92" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I92" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="93" spans="8:9">
-      <c r="H93" t="s">
-        <v>343</v>
+      <c r="H93" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="I93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="8:9">
-      <c r="H94" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I94" s="32" t="s">
+      <c r="H94" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="95" spans="8:9">
       <c r="H95" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="I95" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="8:9">
       <c r="H96" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="I96" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="97" spans="8:9">
-      <c r="H97" t="s">
-        <v>319</v>
+      <c r="H97" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="I97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="8:9">
-      <c r="H98" t="s">
-        <v>321</v>
+      <c r="H98" s="41" t="s">
+        <v>758</v>
       </c>
       <c r="I98" t="s">
-        <v>514</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="8:9">
-      <c r="H99" t="s">
-        <v>253</v>
+      <c r="H99" s="41" t="s">
+        <v>760</v>
       </c>
       <c r="I99" t="s">
-        <v>514</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="8:9">
       <c r="H100" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I100" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="101" spans="8:9">
-      <c r="H101" s="9" t="s">
-        <v>46</v>
+      <c r="H101" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="I101" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="102" spans="8:9">
-      <c r="H102" s="9" t="s">
-        <v>49</v>
+      <c r="H102" t="s">
+        <v>323</v>
       </c>
       <c r="I102" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="8:9">
       <c r="H103" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="I103" t="s">
         <v>514</v>
@@ -9190,7 +9337,7 @@
     </row>
     <row r="104" spans="8:9">
       <c r="H104" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="I104" t="s">
         <v>514</v>
@@ -9198,47 +9345,47 @@
     </row>
     <row r="105" spans="8:9">
       <c r="H105" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="I105" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="106" spans="8:9">
-      <c r="H106" s="22" t="s">
-        <v>216</v>
+      <c r="H106" t="s">
+        <v>253</v>
       </c>
       <c r="I106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" spans="8:9">
-      <c r="H107" s="22" t="s">
-        <v>217</v>
+      <c r="H107" t="s">
+        <v>329</v>
       </c>
       <c r="I107" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" spans="8:9">
       <c r="H108" s="9" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="I108" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="109" spans="8:9">
-      <c r="H109" t="s">
-        <v>234</v>
+      <c r="H109" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I109" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="8:9">
       <c r="H110" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I110" t="s">
         <v>514</v>
@@ -9246,7 +9393,7 @@
     </row>
     <row r="111" spans="8:9">
       <c r="H111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I111" t="s">
         <v>514</v>
@@ -9254,7 +9401,7 @@
     </row>
     <row r="112" spans="8:9">
       <c r="H112" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="I112" t="s">
         <v>514</v>
@@ -9262,47 +9409,47 @@
     </row>
     <row r="113" spans="8:9">
       <c r="H113" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I113" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="114" spans="8:9">
-      <c r="H114" s="9" t="s">
-        <v>180</v>
+      <c r="H114" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="I114" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9">
+      <c r="H115" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="I115" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9">
+      <c r="H116" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="I116" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9">
+      <c r="H117" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I117" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9">
-      <c r="H115" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I115" s="31" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9">
-      <c r="H116" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="I116" s="31" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9">
-      <c r="H117" t="s">
-        <v>261</v>
-      </c>
-      <c r="I117" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="118" spans="8:9">
       <c r="H118" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="I118" t="s">
         <v>514</v>
@@ -9310,7 +9457,7 @@
     </row>
     <row r="119" spans="8:9">
       <c r="H119" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="I119" t="s">
         <v>514</v>
@@ -9318,7 +9465,7 @@
     </row>
     <row r="120" spans="8:9">
       <c r="H120" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="I120" t="s">
         <v>514</v>
@@ -9326,247 +9473,250 @@
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="I121" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="122" spans="8:9">
-      <c r="H122" t="s">
-        <v>239</v>
+      <c r="H122" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="I122" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="8:9">
       <c r="H123" s="9" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="I123" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="124" spans="8:9">
-      <c r="H124" s="9" t="s">
-        <v>185</v>
+      <c r="H124" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="I124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="8:9">
-      <c r="H125" s="22" t="s">
-        <v>220</v>
+      <c r="H125" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="I125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="8:9">
-      <c r="H126" s="22" t="s">
-        <v>221</v>
+      <c r="H126" t="s">
+        <v>261</v>
       </c>
       <c r="I126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="8:9">
       <c r="H127" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="I127" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="8:9">
-      <c r="H128" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="I128" s="23" t="s">
+      <c r="H128" t="s">
+        <v>309</v>
+      </c>
+      <c r="I128" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="129" spans="8:9">
-      <c r="H129" s="9" t="s">
-        <v>109</v>
+    <row r="129" spans="8:10">
+      <c r="H129" t="s">
+        <v>232</v>
       </c>
       <c r="I129" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="130" spans="8:9">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10">
       <c r="H130" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="I130" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="8:9">
-      <c r="H131" s="17" t="s">
-        <v>188</v>
+    <row r="131" spans="8:10">
+      <c r="H131" t="s">
+        <v>239</v>
       </c>
       <c r="I131" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="132" spans="8:9">
-      <c r="H132" s="17" t="s">
-        <v>190</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10">
+      <c r="H132" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="I132" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="133" spans="8:9">
-      <c r="H133" s="22" t="s">
-        <v>222</v>
+    <row r="133" spans="8:10">
+      <c r="H133" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="I133" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="134" spans="8:9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10">
       <c r="H134" s="22" t="s">
-        <v>719</v>
+        <v>220</v>
       </c>
       <c r="I134" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:10">
       <c r="H135" s="22" t="s">
-        <v>720</v>
+        <v>221</v>
       </c>
       <c r="I135" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="136" spans="8:9">
-      <c r="H136" s="26" t="s">
-        <v>395</v>
+    <row r="136" spans="8:10">
+      <c r="H136" t="s">
+        <v>398</v>
       </c>
       <c r="I136" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="137" spans="8:9">
-      <c r="H137" s="26" t="s">
-        <v>394</v>
+    <row r="137" spans="8:10">
+      <c r="H137" s="21" t="s">
+        <v>747</v>
       </c>
       <c r="I137" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="138" spans="8:9">
-      <c r="H138" t="s">
-        <v>315</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10">
+      <c r="H138" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="I138" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="139" spans="8:9">
-      <c r="H139" t="s">
-        <v>291</v>
+      <c r="J138" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10">
+      <c r="H139" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I139" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="140" spans="8:9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10">
       <c r="H140" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I140" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="8:9">
-      <c r="H141" s="22" t="s">
-        <v>225</v>
+    <row r="141" spans="8:10">
+      <c r="H141" s="41" t="s">
+        <v>759</v>
       </c>
       <c r="I141" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10">
+      <c r="H142" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I142" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10">
+      <c r="H143" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I143" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10">
+      <c r="H144" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I144" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="142" spans="8:9">
-      <c r="H142" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I142" t="s">
+    <row r="145" spans="8:9">
+      <c r="H145" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="I145" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9">
+      <c r="H146" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="I146" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="143" spans="8:9">
-      <c r="H143" t="s">
-        <v>722</v>
-      </c>
-      <c r="I143" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="144" spans="8:9">
-      <c r="H144" t="s">
-        <v>384</v>
-      </c>
-      <c r="I144" t="s">
+    <row r="147" spans="8:9">
+      <c r="H147" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="I147" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9">
+      <c r="H148" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="I148" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I149" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="145" spans="8:9">
-      <c r="H145" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="I145" s="32" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="146" spans="8:9">
-      <c r="H146" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="I146" s="32" t="s">
+    <row r="150" spans="8:9">
+      <c r="H150" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I150" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="147" spans="8:9">
-      <c r="H147" t="s">
-        <v>723</v>
-      </c>
-      <c r="I147" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="148" spans="8:9">
-      <c r="H148" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="I148" s="32" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="149" spans="8:9">
-      <c r="H149" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="I149" s="32" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="150" spans="8:9">
-      <c r="H150" t="s">
-        <v>317</v>
-      </c>
-      <c r="I150" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="151" spans="8:9">
       <c r="H151" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="I151" t="s">
         <v>514</v>
@@ -9574,48 +9724,281 @@
     </row>
     <row r="152" spans="8:9">
       <c r="H152" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="I152" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="8:9">
       <c r="H153" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="I153" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="154" spans="8:9">
-      <c r="H154" t="s">
+      <c r="H154" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I154" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9">
+      <c r="H155" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I155" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9">
+      <c r="H156" t="s">
+        <v>722</v>
+      </c>
+      <c r="I156" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9">
+      <c r="H157" t="s">
+        <v>384</v>
+      </c>
+      <c r="I157" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9">
+      <c r="H158" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="I158" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="159" spans="8:9">
+      <c r="H159" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="I159" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9" ht="15" thickBot="1">
+      <c r="H160" t="s">
+        <v>723</v>
+      </c>
+      <c r="I160" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9" ht="15" thickBot="1">
+      <c r="H161" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="I161" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9" ht="15" thickBot="1">
+      <c r="H162" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="I162" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9" ht="15" thickBot="1">
+      <c r="H163" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="I163" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="164" spans="8:9" ht="15" thickBot="1">
+      <c r="H164" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="I164" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="165" spans="8:9" ht="15" thickBot="1">
+      <c r="H165" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I165" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166" spans="8:9" ht="15" thickBot="1">
+      <c r="H166" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="I166" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="167" spans="8:9" ht="15" thickBot="1">
+      <c r="H167" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I167" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="8:9">
-      <c r="H155" s="17" t="s">
+    <row r="168" spans="8:9" ht="15" thickBot="1">
+      <c r="H168" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="I168" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="169" spans="8:9" ht="15" thickBot="1">
+      <c r="H169" s="40" t="s">
+        <v>752</v>
+      </c>
+      <c r="I169" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="170" spans="8:9" ht="15" thickBot="1">
+      <c r="H170" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I170" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="8:9">
-      <c r="H156" s="17" t="s">
+    <row r="171" spans="8:9" ht="15" thickBot="1">
+      <c r="H171" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I171" t="s">
         <v>512</v>
       </c>
     </row>
+    <row r="172" spans="8:9">
+      <c r="H172" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="I172" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="173" spans="8:9">
+      <c r="H173" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I173" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="174" spans="8:9">
+      <c r="H174" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="I174" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="175" spans="8:9">
+      <c r="H175" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="I175" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9">
+      <c r="H176" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I176" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9">
+      <c r="H177" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="I177" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9">
+      <c r="H178" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I178" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9">
+      <c r="H179" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="I179" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9">
+      <c r="H180" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="I180" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9">
+      <c r="H181" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I181" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9">
+      <c r="H182" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="I182" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9">
+      <c r="H183" t="s">
+        <v>370</v>
+      </c>
+      <c r="I183" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9">
+      <c r="H184" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="I184" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9">
+      <c r="H185" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="I185" t="s">
+        <v>763</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I156">
-    <sortCondition ref="H17:H156"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:J172">
+    <sortCondition ref="H157:H172"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DI.xlsx
+++ b/DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYK\Documents\GitHub\GEMIDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5747F36E-2B1E-4A42-A59B-BEF9F8D8B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{5747F36E-2B1E-4A42-A59B-BEF9F8D8B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E828EC23-C7E6-41C6-AE6D-34A7F84889F0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIC" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="792">
   <si>
     <t>IOT BENIGN AND ATTACK TRACES Data Collected for ACM SOSR 2019</t>
   </si>
@@ -2736,6 +2736,57 @@
   </si>
   <si>
     <t>time_stamp</t>
+  </si>
+  <si>
+    <t>b8:f0:09:03:9a:af</t>
+  </si>
+  <si>
+    <t>50:02:91:1a:ce:e1</t>
+  </si>
+  <si>
+    <t>50:02:91:10:09:8f</t>
+  </si>
+  <si>
+    <t>c4:dd:57:0c:39:94</t>
+  </si>
+  <si>
+    <t>b8:f0:09:03:29:79</t>
+  </si>
+  <si>
+    <t>24:a1:60:14:7f:f9</t>
+  </si>
+  <si>
+    <t>50:02:91:10:ac:d8</t>
+  </si>
+  <si>
+    <t>d4:a6:51:76:06:64</t>
+  </si>
+  <si>
+    <t>d4:a6:51:78:97:4e</t>
+  </si>
+  <si>
+    <t>d4:a6:51:20:91:d1</t>
+  </si>
+  <si>
+    <t>d4:a6:51:21:6c:29</t>
+  </si>
+  <si>
+    <t>1c:fe:2b:98:16:dd</t>
+  </si>
+  <si>
+    <t>a0:d0:dc:c4:08:ff</t>
+  </si>
+  <si>
+    <t>eth.src==</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>",</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3146,6 +3197,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3170,45 +3248,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3489,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BA5E4E-74CF-4D87-9CB7-F3CE2DD3A48E}">
-  <dimension ref="B1:F41"/>
+  <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3503,7 +3545,7 @@
     <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:17">
       <c r="B1" s="4" t="s">
         <v>110</v>
       </c>
@@ -3517,8 +3559,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:17">
+      <c r="B2" s="64" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3530,12 +3572,12 @@
       <c r="E2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="40"/>
+    <row r="3" spans="2:17">
+      <c r="B3" s="65"/>
       <c r="C3" s="16" t="s">
         <v>118</v>
       </c>
@@ -3545,10 +3587,10 @@
       <c r="E3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="40"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="65"/>
       <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
@@ -3559,8 +3601,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="40"/>
+    <row r="5" spans="2:17">
+      <c r="B5" s="65"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3571,8 +3613,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="40"/>
+    <row r="6" spans="2:17">
+      <c r="B6" s="65"/>
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
@@ -3583,8 +3625,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="41"/>
+    <row r="7" spans="2:17">
+      <c r="B7" s="66"/>
       <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
@@ -3595,8 +3637,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:17">
+      <c r="B8" s="64" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3609,8 +3651,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="40"/>
+    <row r="9" spans="2:17">
+      <c r="B9" s="65"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
       </c>
@@ -3621,8 +3663,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="40"/>
+    <row r="10" spans="2:17">
+      <c r="B10" s="65"/>
       <c r="C10" s="9" t="s">
         <v>98</v>
       </c>
@@ -3633,8 +3675,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="40"/>
+    <row r="11" spans="2:17">
+      <c r="B11" s="65"/>
       <c r="C11" s="9" t="s">
         <v>100</v>
       </c>
@@ -3645,8 +3687,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="40"/>
+    <row r="12" spans="2:17">
+      <c r="B12" s="65"/>
       <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
@@ -3657,8 +3699,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="40"/>
+    <row r="13" spans="2:17">
+      <c r="B13" s="65"/>
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
@@ -3669,8 +3711,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="40"/>
+    <row r="14" spans="2:17">
+      <c r="B14" s="65"/>
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
@@ -3681,8 +3723,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="40"/>
+    <row r="15" spans="2:17">
+      <c r="B15" s="65"/>
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
@@ -3693,8 +3735,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="40"/>
+    <row r="16" spans="2:17">
+      <c r="B16" s="65"/>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
@@ -3704,9 +3746,18 @@
       <c r="E16" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="40"/>
+      <c r="N16" t="s">
+        <v>788</v>
+      </c>
+      <c r="O16" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="65"/>
       <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3716,9 +3767,18 @@
       <c r="E17" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="41"/>
+      <c r="N17" t="s">
+        <v>788</v>
+      </c>
+      <c r="O17" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="66"/>
       <c r="C18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3728,9 +3788,27 @@
       <c r="E18" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="39" t="s">
+      <c r="I18" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="N18" t="s">
+        <v>788</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3742,9 +3820,27 @@
       <c r="E19" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="40"/>
+      <c r="I19" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N19" t="s">
+        <v>788</v>
+      </c>
+      <c r="O19" s="72" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="65"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
@@ -3754,9 +3850,27 @@
       <c r="E20" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="40"/>
+      <c r="I20" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" t="s">
+        <v>788</v>
+      </c>
+      <c r="O20" s="72" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="65"/>
       <c r="C21" s="9" t="s">
         <v>156</v>
       </c>
@@ -3766,9 +3880,27 @@
       <c r="E21" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="40"/>
+      <c r="I21" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
+        <v>788</v>
+      </c>
+      <c r="O21" s="72" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="65"/>
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
@@ -3778,104 +3910,209 @@
       <c r="E22" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="40"/>
-      <c r="C23" s="51" t="s">
+      <c r="I22" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" t="s">
+        <v>788</v>
+      </c>
+      <c r="O22" s="72" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="65"/>
+      <c r="C23" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="40"/>
-      <c r="C24" s="54" t="s">
+      <c r="I23" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" t="s">
+        <v>788</v>
+      </c>
+      <c r="O23" s="72" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="65"/>
+      <c r="C24" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="40"/>
-      <c r="C25" s="56" t="s">
+      <c r="F24" s="67"/>
+      <c r="I24" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" t="s">
+        <v>788</v>
+      </c>
+      <c r="O24" s="72" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="65"/>
+      <c r="C25" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="40"/>
-      <c r="C26" s="49" t="s">
+      <c r="F25" s="67"/>
+      <c r="J25" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N25" t="s">
+        <v>788</v>
+      </c>
+      <c r="O25" s="72" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="65"/>
+      <c r="C26" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="40"/>
-      <c r="C27" s="49" t="s">
+      <c r="J26" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" t="s">
+        <v>788</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="65"/>
+      <c r="C27" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="40"/>
-      <c r="C28" s="49" t="s">
+      <c r="F27" s="67"/>
+      <c r="J27" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="N27" t="s">
+        <v>788</v>
+      </c>
+      <c r="O27" s="72" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="65"/>
+      <c r="C28" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="40"/>
-      <c r="C29" s="49" t="s">
+      <c r="F28" s="67"/>
+      <c r="J28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="N28" t="s">
+        <v>788</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="65"/>
+      <c r="C29" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="40"/>
+      <c r="F29" s="67"/>
+      <c r="J29" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="65"/>
       <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
@@ -3885,9 +4122,12 @@
       <c r="E30" s="10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="40"/>
+      <c r="J30" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="65"/>
       <c r="C31" s="9" t="s">
         <v>177</v>
       </c>
@@ -3898,8 +4138,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="40"/>
+    <row r="32" spans="2:17">
+      <c r="B32" s="65"/>
       <c r="C32" s="9" t="s">
         <v>180</v>
       </c>
@@ -3910,8 +4150,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="40"/>
+    <row r="33" spans="2:12">
+      <c r="B33" s="65"/>
       <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
@@ -3922,8 +4162,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="40"/>
+    <row r="34" spans="2:12">
+      <c r="B34" s="65"/>
       <c r="C34" s="9" t="s">
         <v>185</v>
       </c>
@@ -3934,8 +4174,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="40"/>
+    <row r="35" spans="2:12">
+      <c r="B35" s="65"/>
       <c r="C35" s="16" t="s">
         <v>188</v>
       </c>
@@ -3945,12 +4185,12 @@
       <c r="E35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="40"/>
+    <row r="36" spans="2:12">
+      <c r="B36" s="65"/>
       <c r="C36" s="16" t="s">
         <v>190</v>
       </c>
@@ -3960,10 +4200,10 @@
       <c r="E36" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="40"/>
+      <c r="F36" s="67"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="65"/>
       <c r="C37" s="16" t="s">
         <v>192</v>
       </c>
@@ -3973,12 +4213,21 @@
       <c r="E37" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="41"/>
+      <c r="I37" t="s">
+        <v>790</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="L37" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="66"/>
       <c r="C38" s="18" t="s">
         <v>194</v>
       </c>
@@ -3988,10 +4237,19 @@
       <c r="E38" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="39" t="s">
+      <c r="F38" s="67"/>
+      <c r="I38" t="s">
+        <v>790</v>
+      </c>
+      <c r="J38" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="L38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="64" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -4003,9 +4261,18 @@
       <c r="E39" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="40"/>
+      <c r="I39" t="s">
+        <v>790</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>777</v>
+      </c>
+      <c r="L39" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="65"/>
       <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
@@ -4015,9 +4282,18 @@
       <c r="E40" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="41"/>
+      <c r="I40" t="s">
+        <v>790</v>
+      </c>
+      <c r="J40" s="72" t="s">
+        <v>778</v>
+      </c>
+      <c r="L40" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="66"/>
       <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
@@ -4026,6 +4302,103 @@
       </c>
       <c r="E41" s="12" t="s">
         <v>202</v>
+      </c>
+      <c r="I41" t="s">
+        <v>790</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>779</v>
+      </c>
+      <c r="L41" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="I42" t="s">
+        <v>790</v>
+      </c>
+      <c r="J42" s="72" t="s">
+        <v>780</v>
+      </c>
+      <c r="L42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="I43" t="s">
+        <v>790</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>781</v>
+      </c>
+      <c r="L43" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="I44" t="s">
+        <v>790</v>
+      </c>
+      <c r="J44" s="72" t="s">
+        <v>782</v>
+      </c>
+      <c r="L44" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="I45" t="s">
+        <v>790</v>
+      </c>
+      <c r="J45" s="72" t="s">
+        <v>783</v>
+      </c>
+      <c r="L45" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="I46" t="s">
+        <v>790</v>
+      </c>
+      <c r="J46" s="72" t="s">
+        <v>784</v>
+      </c>
+      <c r="L46" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="I47" t="s">
+        <v>790</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>785</v>
+      </c>
+      <c r="L47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="I48" t="s">
+        <v>790</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>786</v>
+      </c>
+      <c r="L48" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12">
+      <c r="I49" t="s">
+        <v>790</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="L49" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -6058,10 +6431,10 @@
       <c r="D5" t="s">
         <v>541</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="71" t="s">
         <v>740</v>
       </c>
-      <c r="L5" s="46"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="4:14" ht="15.6">
@@ -6085,7 +6458,7 @@
       <c r="H7" t="s">
         <v>748</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="39" t="s">
         <v>723</v>
       </c>
       <c r="J7" s="28">
@@ -6148,7 +6521,7 @@
       <c r="H10" t="s">
         <v>748</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="39" t="s">
         <v>726</v>
       </c>
       <c r="J10" s="28">
@@ -6166,7 +6539,7 @@
       </c>
     </row>
     <row r="11" spans="4:14" ht="15.6">
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="39" t="s">
         <v>727</v>
       </c>
       <c r="J11" s="28">
@@ -6229,7 +6602,7 @@
       <c r="H14" t="s">
         <v>748</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="39" t="s">
         <v>730</v>
       </c>
       <c r="J14" s="28">
@@ -6250,7 +6623,7 @@
       <c r="H15" t="s">
         <v>748</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="39" t="s">
         <v>731</v>
       </c>
       <c r="J15" s="28">
@@ -6292,7 +6665,7 @@
       <c r="H17" t="s">
         <v>748</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="39" t="s">
         <v>733</v>
       </c>
       <c r="J17" s="28">
@@ -6334,7 +6707,7 @@
       <c r="H19" t="s">
         <v>748</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="39" t="s">
         <v>735</v>
       </c>
       <c r="J19" s="28">
@@ -6405,7 +6778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679CF10-A526-4721-87C0-7450663D1A22}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6433,27 +6806,27 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="79">
+      <c r="A2" s="63">
         <f ca="1">TODAY()</f>
-        <v>45307</v>
+        <v>45319</v>
       </c>
       <c r="B2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79">
+      <c r="A3" s="63">
         <f t="shared" ref="A3:A4" ca="1" si="0">TODAY()</f>
-        <v>45307</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79">
+      <c r="A4" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45307</v>
+        <v>45319</v>
       </c>
       <c r="B4" t="s">
         <v>773</v>
@@ -6680,7 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D54940-74FC-4731-816C-AF3DE5F1277D}">
   <dimension ref="E1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7242,7 +7615,7 @@
   <dimension ref="E1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7259,7 +7632,7 @@
       <c r="E2" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7267,13 +7640,13 @@
       <c r="E3" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7281,37 +7654,37 @@
       <c r="E5" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="5:6">
       <c r="E10" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7319,13 +7692,13 @@
       <c r="E11" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="5:6">
       <c r="E13" s="22" t="s">
@@ -7336,7 +7709,7 @@
       <c r="E14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="68" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7344,7 +7717,7 @@
       <c r="E15" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7361,7 +7734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A6F5D8-0175-448F-9E88-15067B3F2F8C}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7371,11 +7744,11 @@
     <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="48" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:2" s="40" customFormat="1">
+      <c r="A1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="40" t="s">
         <v>763</v>
       </c>
     </row>
@@ -7604,7 +7977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0D9EB-6709-41C9-8569-6EFE672C8877}">
   <dimension ref="D1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F42"/>
     </sheetView>
   </sheetViews>
@@ -8104,11 +8477,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="1"/>
@@ -8712,7 +9085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287DA618-E5E5-4C43-B3A2-5C05E8E0DAF8}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
@@ -8770,8 +9143,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="20" t="s">
         <v>743</v>
       </c>
       <c r="C7" t="s">
@@ -8779,8 +9152,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="36" t="s">
         <v>761</v>
       </c>
       <c r="C8" t="s">
@@ -8788,8 +9161,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53" t="s">
         <v>542</v>
       </c>
       <c r="C9" t="s">
@@ -8797,8 +9170,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="25" t="s">
         <v>543</v>
       </c>
       <c r="C10" t="s">
@@ -8998,7 +9371,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="70"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="29" t="s">
         <v>206</v>
       </c>
@@ -9007,7 +9380,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="71"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="28" t="s">
         <v>389</v>
       </c>
@@ -9016,7 +9389,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="71"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="23" t="s">
         <v>359</v>
       </c>
@@ -9025,7 +9398,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="72"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="23" t="s">
         <v>360</v>
       </c>
@@ -9034,7 +9407,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="70"/>
+      <c r="A39" s="54"/>
       <c r="B39" t="s">
         <v>388</v>
       </c>
@@ -9043,8 +9416,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="59" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="50" t="s">
         <v>361</v>
       </c>
       <c r="C40" t="s">
@@ -9052,8 +9425,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="51" t="s">
         <v>362</v>
       </c>
       <c r="C41" t="s">
@@ -9061,7 +9434,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="71"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="23" t="s">
         <v>363</v>
       </c>
@@ -9070,8 +9443,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="50" t="s">
         <v>364</v>
       </c>
       <c r="C43" t="s">
@@ -9079,7 +9452,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="71"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="23" t="s">
         <v>365</v>
       </c>
@@ -9088,7 +9461,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="72"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="23" t="s">
         <v>366</v>
       </c>
@@ -9105,7 +9478,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="70"/>
+      <c r="A47" s="54"/>
       <c r="B47" t="s">
         <v>387</v>
       </c>
@@ -9114,7 +9487,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="71"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="22" t="s">
         <v>371</v>
       </c>
@@ -9123,7 +9496,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="72"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="22" t="s">
         <v>372</v>
       </c>
@@ -9132,8 +9505,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="70"/>
-      <c r="B50" s="61" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" t="s">
         <v>370</v>
       </c>
       <c r="C50" t="s">
@@ -9141,7 +9514,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="56"/>
       <c r="B51" t="s">
         <v>370</v>
       </c>
@@ -9150,7 +9523,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="61" t="s">
+      <c r="B52" t="s">
         <v>393</v>
       </c>
       <c r="C52" t="s">
@@ -9166,7 +9539,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="70"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="23" t="s">
         <v>369</v>
       </c>
@@ -9175,7 +9548,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="71"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="23" t="s">
         <v>367</v>
       </c>
@@ -9184,7 +9557,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="23" t="s">
         <v>368</v>
       </c>
@@ -9193,7 +9566,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="61" t="s">
+      <c r="B57" t="s">
         <v>390</v>
       </c>
       <c r="C57" t="s">
@@ -9281,7 +9654,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B68" s="36" t="s">
@@ -9292,7 +9665,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -9303,7 +9676,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B70" t="s">
@@ -9314,7 +9687,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B71" t="s">
@@ -9325,7 +9698,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B72" t="s">
@@ -9336,7 +9709,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B73" t="s">
@@ -9363,7 +9736,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="74"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="13" t="s">
         <v>164</v>
       </c>
@@ -9372,7 +9745,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="75"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="13" t="s">
         <v>162</v>
       </c>
@@ -9381,7 +9754,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="75"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="13" t="s">
         <v>168</v>
       </c>
@@ -9390,7 +9763,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="75"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="13" t="s">
         <v>166</v>
       </c>
@@ -9399,7 +9772,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="75"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="13" t="s">
         <v>174</v>
       </c>
@@ -9408,7 +9781,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="75"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="13" t="s">
         <v>172</v>
       </c>
@@ -9417,7 +9790,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="76"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="13" t="s">
         <v>170</v>
       </c>
@@ -9802,7 +10175,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="73" t="s">
+      <c r="A130" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -9813,7 +10186,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="73" t="s">
+      <c r="A131" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -9824,7 +10197,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="73" t="s">
+      <c r="A132" s="57" t="s">
         <v>772</v>
       </c>
       <c r="B132" t="s">
@@ -9875,7 +10248,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="74"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="26" t="s">
         <v>219</v>
       </c>
@@ -9884,7 +10257,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="76"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="27" t="s">
         <v>257</v>
       </c>
@@ -9989,7 +10362,7 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="77" t="s">
+      <c r="A152" s="61" t="s">
         <v>772</v>
       </c>
       <c r="B152" s="22" t="s">
@@ -10027,7 +10400,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="74"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="16" t="s">
         <v>188</v>
       </c>
@@ -10036,7 +10409,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="76"/>
+      <c r="A157" s="60"/>
       <c r="B157" s="16" t="s">
         <v>190</v>
       </c>
@@ -10077,7 +10450,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1">
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="52" t="s">
         <v>719</v>
       </c>
       <c r="C162" t="s">
@@ -10085,8 +10458,8 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1">
-      <c r="A163" s="74"/>
-      <c r="B163" s="78" t="s">
+      <c r="A163" s="58"/>
+      <c r="B163" s="62" t="s">
         <v>395</v>
       </c>
       <c r="C163" t="s">
@@ -10094,8 +10467,8 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1">
-      <c r="A164" s="76"/>
-      <c r="B164" s="78" t="s">
+      <c r="A164" s="60"/>
+      <c r="B164" s="62" t="s">
         <v>394</v>
       </c>
       <c r="C164" t="s">
@@ -10127,7 +10500,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1">
-      <c r="B168" s="64" t="s">
+      <c r="B168" s="52" t="s">
         <v>225</v>
       </c>
       <c r="C168" t="s">
@@ -10135,7 +10508,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1">
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="52" t="s">
         <v>226</v>
       </c>
       <c r="C169" t="s">
@@ -10159,7 +10532,7 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="74"/>
+      <c r="A172" s="58"/>
       <c r="B172" s="28" t="s">
         <v>385</v>
       </c>
@@ -10168,7 +10541,7 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="76"/>
+      <c r="A173" s="60"/>
       <c r="B173" s="28" t="s">
         <v>385</v>
       </c>
@@ -10185,8 +10558,8 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="74"/>
-      <c r="B175" s="63" t="s">
+      <c r="A175" s="58"/>
+      <c r="B175" s="28" t="s">
         <v>386</v>
       </c>
       <c r="C175" t="s">
@@ -10194,8 +10567,8 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="76"/>
-      <c r="B176" s="63" t="s">
+      <c r="A176" s="60"/>
+      <c r="B176" s="28" t="s">
         <v>386</v>
       </c>
       <c r="C176" t="s">
@@ -10203,7 +10576,7 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="B177" s="61" t="s">
+      <c r="B177" t="s">
         <v>317</v>
       </c>
       <c r="C177" t="s">
@@ -10211,7 +10584,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="B178" s="61" t="s">
+      <c r="B178" t="s">
         <v>251</v>
       </c>
       <c r="C178" t="s">
@@ -10219,10 +10592,10 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="77" t="s">
+      <c r="A179" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="B179" s="61" t="s">
+      <c r="B179" t="s">
         <v>376</v>
       </c>
       <c r="C179" t="s">
@@ -10230,10 +10603,10 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="77" t="s">
+      <c r="A180" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="B180" s="61" t="s">
+      <c r="B180" t="s">
         <v>281</v>
       </c>
       <c r="C180" t="s">
@@ -10241,7 +10614,7 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="B181" s="61" t="s">
+      <c r="B181" t="s">
         <v>349</v>
       </c>
       <c r="C181" t="s">
@@ -10249,7 +10622,7 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="B182" s="65" t="s">
+      <c r="B182" s="36" t="s">
         <v>753</v>
       </c>
       <c r="C182" t="s">
@@ -10257,7 +10630,7 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="B183" s="65" t="s">
+      <c r="B183" s="36" t="s">
         <v>751</v>
       </c>
       <c r="C183" t="s">
@@ -10265,8 +10638,8 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="74"/>
-      <c r="B184" s="60" t="s">
+      <c r="A184" s="58"/>
+      <c r="B184" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C184" t="s">
@@ -10274,8 +10647,8 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="76"/>
-      <c r="B185" s="60" t="s">
+      <c r="A185" s="60"/>
+      <c r="B185" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C185" t="s">
